--- a/data/excel_files_raw/test_excel_11_raw.xlsx
+++ b/data/excel_files_raw/test_excel_11_raw.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58081CAC-61F3-1A40-9EF5-46130B10B974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9249FBF6-8449-1342-AF0F-94AD81B81EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Financial Data" sheetId="1" r:id="rId1"/>
+    <sheet name="FinancialData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +102,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +121,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD7E4BC"/>
         <bgColor rgb="FFD7E4BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,10 +153,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -153,8 +166,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,7 +386,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -385,7 +400,7 @@
     <col min="11" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -410,7 +425,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -443,15 +458,15 @@
         <v>0.30793053380942653</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H101" si="3">SUM(B$2:B2)</f>
+        <f>SUM(B2:B2)</f>
         <v>1626</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I101" si="4">AVERAGE(B$2:B2)</f>
+        <f>AVERAGE(B2:B2)</f>
         <v>1626</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f t="shared" ref="J2:J101" si="5">IF(G2&gt;0, "Profit", "Loss")</f>
+        <f t="shared" ref="J2:J101" si="3">IF(G2&gt;0, "Profit", "Loss")</f>
         <v>Profit</v>
       </c>
     </row>
@@ -481,15 +496,15 @@
         <v>0.43973714850787388</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="3"/>
-        <v>3585</v>
+        <f t="shared" ref="H3:H66" si="4">SUM(B3:B3)</f>
+        <v>1959</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="4"/>
-        <v>1792.5</v>
+        <f t="shared" ref="I3:I66" si="5">AVERAGE(B3:B3)</f>
+        <v>1959</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -519,15 +534,15 @@
         <v>0.32090875280920661</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="3"/>
-        <v>4945</v>
+        <f t="shared" si="4"/>
+        <v>1360</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="4"/>
-        <v>1648.3333333333333</v>
+        <f t="shared" si="5"/>
+        <v>1360</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -557,15 +572,15 @@
         <v>0.48101235710856932</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="3"/>
-        <v>6739</v>
+        <f t="shared" si="4"/>
+        <v>1794</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="4"/>
-        <v>1684.75</v>
+        <f t="shared" si="5"/>
+        <v>1794</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -595,15 +610,15 @@
         <v>0.2435333183610725</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>8369</v>
+        <f t="shared" si="4"/>
+        <v>1630</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="4"/>
-        <v>1673.8</v>
+        <f t="shared" si="5"/>
+        <v>1630</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -633,15 +648,15 @@
         <v>0.27779460995644029</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="3"/>
-        <v>9964</v>
+        <f t="shared" si="4"/>
+        <v>1595</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="4"/>
-        <v>1660.6666666666667</v>
+        <f t="shared" si="5"/>
+        <v>1595</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -671,15 +686,15 @@
         <v>0.45859808080037989</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="3"/>
-        <v>11508</v>
+        <f t="shared" si="4"/>
+        <v>1544</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="4"/>
-        <v>1644</v>
+        <f t="shared" si="5"/>
+        <v>1544</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -709,15 +724,15 @@
         <v>0.44768627074535144</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="3"/>
-        <v>12129</v>
+        <f t="shared" si="4"/>
+        <v>621</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="4"/>
-        <v>1516.125</v>
+        <f t="shared" si="5"/>
+        <v>621</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -747,15 +762,15 @@
         <v>0.31425813678923936</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="3"/>
-        <v>13095</v>
+        <f t="shared" si="4"/>
+        <v>966</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="4"/>
-        <v>1455</v>
+        <f t="shared" si="5"/>
+        <v>966</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -785,15 +800,15 @@
         <v>0.29411125218953149</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="3"/>
-        <v>14833</v>
+        <f t="shared" si="4"/>
+        <v>1738</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="4"/>
-        <v>1483.3</v>
+        <f t="shared" si="5"/>
+        <v>1738</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -823,15 +838,15 @@
         <v>0.33676192349130341</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="3"/>
-        <v>15663</v>
+        <f t="shared" si="4"/>
+        <v>830</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="4"/>
-        <v>1423.909090909091</v>
+        <f t="shared" si="5"/>
+        <v>830</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -861,15 +876,15 @@
         <v>0.27665215685256422</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>17645</v>
+        <f t="shared" si="4"/>
+        <v>1982</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="4"/>
-        <v>1470.4166666666667</v>
+        <f t="shared" si="5"/>
+        <v>1982</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -899,15 +914,15 @@
         <v>0.44651753502312808</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>18232</v>
+        <f t="shared" si="4"/>
+        <v>587</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="4"/>
-        <v>1402.4615384615386</v>
+        <f t="shared" si="5"/>
+        <v>587</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -937,15 +952,15 @@
         <v>0.33463385541747198</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
-        <v>20128</v>
+        <f t="shared" si="4"/>
+        <v>1896</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="4"/>
-        <v>1437.7142857142858</v>
+        <f t="shared" si="5"/>
+        <v>1896</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -975,15 +990,15 @@
         <v>0.46307409368037472</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="3"/>
-        <v>21751</v>
+        <f t="shared" si="4"/>
+        <v>1623</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="4"/>
-        <v>1450.0666666666666</v>
+        <f t="shared" si="5"/>
+        <v>1623</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1013,15 +1028,15 @@
         <v>0.29327267971985554</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="3"/>
-        <v>23122</v>
+        <f t="shared" si="4"/>
+        <v>1371</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="4"/>
-        <v>1445.125</v>
+        <f t="shared" si="5"/>
+        <v>1371</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1051,15 +1066,15 @@
         <v>0.36399302251042953</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="3"/>
-        <v>23752</v>
+        <f t="shared" si="4"/>
+        <v>630</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="4"/>
-        <v>1397.1764705882354</v>
+        <f t="shared" si="5"/>
+        <v>630</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1089,15 +1104,15 @@
         <v>0.34135103320161386</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="3"/>
-        <v>25584</v>
+        <f t="shared" si="4"/>
+        <v>1832</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="4"/>
-        <v>1421.3333333333333</v>
+        <f t="shared" si="5"/>
+        <v>1832</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1127,15 +1142,15 @@
         <v>0.39955439460469716</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="3"/>
-        <v>26853</v>
+        <f t="shared" si="4"/>
+        <v>1269</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="4"/>
-        <v>1413.3157894736842</v>
+        <f t="shared" si="5"/>
+        <v>1269</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1165,15 +1180,15 @@
         <v>0.412009372885352</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="3"/>
-        <v>27696</v>
+        <f t="shared" si="4"/>
+        <v>843</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="4"/>
-        <v>1384.8</v>
+        <f t="shared" si="5"/>
+        <v>843</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1203,15 +1218,15 @@
         <v>0.36896493099123268</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="3"/>
-        <v>29633</v>
+        <f t="shared" si="4"/>
+        <v>1937</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="4"/>
-        <v>1411.0952380952381</v>
+        <f t="shared" si="5"/>
+        <v>1937</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1241,15 +1256,15 @@
         <v>0.27235654431226558</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="3"/>
-        <v>30938</v>
+        <f t="shared" si="4"/>
+        <v>1305</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="4"/>
-        <v>1406.2727272727273</v>
+        <f t="shared" si="5"/>
+        <v>1305</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1279,15 +1294,15 @@
         <v>0.31696842456901114</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="3"/>
-        <v>31823</v>
+        <f t="shared" si="4"/>
+        <v>885</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="4"/>
-        <v>1383.608695652174</v>
+        <f t="shared" si="5"/>
+        <v>885</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1317,15 +1332,15 @@
         <v>0.26959239364913395</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="3"/>
-        <v>33538</v>
+        <f t="shared" si="4"/>
+        <v>1715</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="4"/>
-        <v>1397.4166666666667</v>
+        <f t="shared" si="5"/>
+        <v>1715</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1355,15 +1370,15 @@
         <v>0.38137178587756498</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="3"/>
-        <v>34993</v>
+        <f t="shared" si="4"/>
+        <v>1455</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="4"/>
-        <v>1399.72</v>
+        <f t="shared" si="5"/>
+        <v>1455</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1393,15 +1408,15 @@
         <v>0.46677087403174955</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="3"/>
-        <v>35769</v>
+        <f t="shared" si="4"/>
+        <v>776</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="4"/>
-        <v>1375.7307692307693</v>
+        <f t="shared" si="5"/>
+        <v>776</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1431,15 +1446,15 @@
         <v>0.26762946676006827</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="3"/>
-        <v>37453</v>
+        <f t="shared" si="4"/>
+        <v>1684</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="4"/>
-        <v>1387.148148148148</v>
+        <f t="shared" si="5"/>
+        <v>1684</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1469,15 +1484,15 @@
         <v>0.25780118456028744</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="3"/>
-        <v>38412</v>
+        <f t="shared" si="4"/>
+        <v>959</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="4"/>
-        <v>1371.8571428571429</v>
+        <f t="shared" si="5"/>
+        <v>959</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1507,15 +1522,15 @@
         <v>0.32443441475877388</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="3"/>
-        <v>40249</v>
+        <f t="shared" si="4"/>
+        <v>1837</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="4"/>
-        <v>1387.8965517241379</v>
+        <f t="shared" si="5"/>
+        <v>1837</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1545,15 +1560,15 @@
         <v>0.31190358490421782</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="3"/>
-        <v>40770</v>
+        <f t="shared" si="4"/>
+        <v>521</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="4"/>
-        <v>1359</v>
+        <f t="shared" si="5"/>
+        <v>521</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1583,15 +1598,15 @@
         <v>0.36631992326585577</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="3"/>
-        <v>41522</v>
+        <f t="shared" si="4"/>
+        <v>752</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="4"/>
-        <v>1339.4193548387098</v>
+        <f t="shared" si="5"/>
+        <v>752</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1621,15 +1636,15 @@
         <v>0.32285786623657731</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="3"/>
-        <v>42769</v>
+        <f t="shared" si="4"/>
+        <v>1247</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="4"/>
-        <v>1336.53125</v>
+        <f t="shared" si="5"/>
+        <v>1247</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1659,15 +1674,15 @@
         <v>0.32478077033303238</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="3"/>
-        <v>44125</v>
+        <f t="shared" si="4"/>
+        <v>1356</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="4"/>
-        <v>1337.121212121212</v>
+        <f t="shared" si="5"/>
+        <v>1356</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1697,15 +1712,15 @@
         <v>0.40620753222466921</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="3"/>
-        <v>45099</v>
+        <f t="shared" si="4"/>
+        <v>974</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="4"/>
-        <v>1326.4411764705883</v>
+        <f t="shared" si="5"/>
+        <v>974</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1735,15 +1750,15 @@
         <v>0.40043416001557669</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="3"/>
-        <v>46681</v>
+        <f t="shared" si="4"/>
+        <v>1582</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="4"/>
-        <v>1333.7428571428572</v>
+        <f t="shared" si="5"/>
+        <v>1582</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1773,15 +1788,15 @@
         <v>0.42951099824722422</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="3"/>
-        <v>47691</v>
+        <f t="shared" si="4"/>
+        <v>1010</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="4"/>
-        <v>1324.75</v>
+        <f t="shared" si="5"/>
+        <v>1010</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1811,15 +1826,15 @@
         <v>0.36430392124773925</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="3"/>
-        <v>49690</v>
+        <f t="shared" si="4"/>
+        <v>1999</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="4"/>
-        <v>1342.9729729729729</v>
+        <f t="shared" si="5"/>
+        <v>1999</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1849,15 +1864,15 @@
         <v>0.4209659323752733</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
-        <v>50889</v>
+        <f t="shared" si="4"/>
+        <v>1199</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="4"/>
-        <v>1339.1842105263158</v>
+        <f t="shared" si="5"/>
+        <v>1199</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1887,15 +1902,15 @@
         <v>0.30843044291435151</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="3"/>
-        <v>52364</v>
+        <f t="shared" si="4"/>
+        <v>1475</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="4"/>
-        <v>1342.6666666666667</v>
+        <f t="shared" si="5"/>
+        <v>1475</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1925,15 +1940,15 @@
         <v>0.25784379924882223</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="3"/>
-        <v>53053</v>
+        <f t="shared" si="4"/>
+        <v>689</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="4"/>
-        <v>1326.325</v>
+        <f t="shared" si="5"/>
+        <v>689</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -1963,15 +1978,15 @@
         <v>0.44922184900856194</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="3"/>
-        <v>54510</v>
+        <f t="shared" si="4"/>
+        <v>1457</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="4"/>
-        <v>1329.5121951219512</v>
+        <f t="shared" si="5"/>
+        <v>1457</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2001,15 +2016,15 @@
         <v>0.4077762611062708</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="3"/>
-        <v>55696</v>
+        <f t="shared" si="4"/>
+        <v>1186</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="4"/>
-        <v>1326.0952380952381</v>
+        <f t="shared" si="5"/>
+        <v>1186</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2039,15 +2054,15 @@
         <v>0.28253959538058471</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="3"/>
-        <v>57153</v>
+        <f t="shared" si="4"/>
+        <v>1457</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="4"/>
-        <v>1329.1395348837209</v>
+        <f t="shared" si="5"/>
+        <v>1457</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2077,15 +2092,15 @@
         <v>0.45373420851705365</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="3"/>
-        <v>58215</v>
+        <f t="shared" si="4"/>
+        <v>1062</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="4"/>
-        <v>1323.0681818181818</v>
+        <f t="shared" si="5"/>
+        <v>1062</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2115,15 +2130,15 @@
         <v>0.46852321289249149</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="3"/>
-        <v>59982</v>
+        <f t="shared" si="4"/>
+        <v>1767</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="4"/>
-        <v>1332.9333333333334</v>
+        <f t="shared" si="5"/>
+        <v>1767</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2153,15 +2168,15 @@
         <v>0.38717633048058775</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="3"/>
-        <v>61313</v>
+        <f t="shared" si="4"/>
+        <v>1331</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="4"/>
-        <v>1332.891304347826</v>
+        <f t="shared" si="5"/>
+        <v>1331</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2191,15 +2206,15 @@
         <v>0.39856622277992981</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="3"/>
-        <v>62967</v>
+        <f t="shared" si="4"/>
+        <v>1654</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="4"/>
-        <v>1339.7234042553191</v>
+        <f t="shared" si="5"/>
+        <v>1654</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2229,15 +2244,15 @@
         <v>0.24886434358122531</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="3"/>
-        <v>64113</v>
+        <f t="shared" si="4"/>
+        <v>1146</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="4"/>
-        <v>1335.6875</v>
+        <f t="shared" si="5"/>
+        <v>1146</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2267,15 +2282,15 @@
         <v>0.31594899314106051</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="3"/>
-        <v>64633</v>
+        <f t="shared" si="4"/>
+        <v>520</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="4"/>
-        <v>1319.0408163265306</v>
+        <f t="shared" si="5"/>
+        <v>520</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2305,15 +2320,15 @@
         <v>0.30210132656316174</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="3"/>
-        <v>65973</v>
+        <f t="shared" si="4"/>
+        <v>1340</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="4"/>
-        <v>1319.46</v>
+        <f t="shared" si="5"/>
+        <v>1340</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2343,15 +2358,15 @@
         <v>0.30198297321277645</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="3"/>
-        <v>66639</v>
+        <f t="shared" si="4"/>
+        <v>666</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="4"/>
-        <v>1306.6470588235295</v>
+        <f t="shared" si="5"/>
+        <v>666</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2381,15 +2396,15 @@
         <v>0.30672561480425015</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="3"/>
-        <v>68436</v>
+        <f t="shared" si="4"/>
+        <v>1797</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="4"/>
-        <v>1316.0769230769231</v>
+        <f t="shared" si="5"/>
+        <v>1797</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2419,15 +2434,15 @@
         <v>0.38803684771099028</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="3"/>
-        <v>69323</v>
+        <f t="shared" si="4"/>
+        <v>887</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="4"/>
-        <v>1307.9811320754718</v>
+        <f t="shared" si="5"/>
+        <v>887</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2457,15 +2472,15 @@
         <v>0.25652491039728298</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="3"/>
-        <v>70423</v>
+        <f t="shared" si="4"/>
+        <v>1100</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="4"/>
-        <v>1304.1296296296296</v>
+        <f t="shared" si="5"/>
+        <v>1100</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2495,15 +2510,15 @@
         <v>0.30720921056745204</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="3"/>
-        <v>71238</v>
+        <f t="shared" si="4"/>
+        <v>815</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="4"/>
-        <v>1295.2363636363636</v>
+        <f t="shared" si="5"/>
+        <v>815</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2533,15 +2548,15 @@
         <v>0.27275067973715311</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="3"/>
-        <v>71751</v>
+        <f t="shared" si="4"/>
+        <v>513</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="4"/>
-        <v>1281.2678571428571</v>
+        <f t="shared" si="5"/>
+        <v>513</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2571,15 +2586,15 @@
         <v>0.26395087968175412</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="3"/>
-        <v>72492</v>
+        <f t="shared" si="4"/>
+        <v>741</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="4"/>
-        <v>1271.7894736842106</v>
+        <f t="shared" si="5"/>
+        <v>741</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2609,15 +2624,15 @@
         <v>0.42703182822281799</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="3"/>
-        <v>73768</v>
+        <f t="shared" si="4"/>
+        <v>1276</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="4"/>
-        <v>1271.8620689655172</v>
+        <f t="shared" si="5"/>
+        <v>1276</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2647,15 +2662,15 @@
         <v>0.44121803478852134</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="3"/>
-        <v>75637</v>
+        <f t="shared" si="4"/>
+        <v>1869</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="4"/>
-        <v>1281.9830508474577</v>
+        <f t="shared" si="5"/>
+        <v>1869</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2685,15 +2700,15 @@
         <v>0.42789273072343903</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="3"/>
-        <v>76701</v>
+        <f t="shared" si="4"/>
+        <v>1064</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="4"/>
-        <v>1278.3499999999999</v>
+        <f t="shared" si="5"/>
+        <v>1064</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2723,15 +2738,15 @@
         <v>0.39017947793684038</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="3"/>
-        <v>78098</v>
+        <f t="shared" si="4"/>
+        <v>1397</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="4"/>
-        <v>1280.295081967213</v>
+        <f t="shared" si="5"/>
+        <v>1397</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2761,15 +2776,15 @@
         <v>0.23909599134025683</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="3"/>
-        <v>79961</v>
+        <f t="shared" si="4"/>
+        <v>1863</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="4"/>
-        <v>1289.6935483870968</v>
+        <f t="shared" si="5"/>
+        <v>1863</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2799,15 +2814,15 @@
         <v>0.28854411088205528</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="3"/>
-        <v>80552</v>
+        <f t="shared" si="4"/>
+        <v>591</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="4"/>
-        <v>1278.6031746031747</v>
+        <f t="shared" si="5"/>
+        <v>591</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2837,15 +2852,15 @@
         <v>0.40940491837605042</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="3"/>
-        <v>82442</v>
+        <f t="shared" si="4"/>
+        <v>1890</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="4"/>
-        <v>1288.15625</v>
+        <f t="shared" si="5"/>
+        <v>1890</v>
       </c>
       <c r="J65" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2875,15 +2890,15 @@
         <v>0.33473667688476055</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="3"/>
-        <v>83897</v>
+        <f t="shared" si="4"/>
+        <v>1455</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="4"/>
-        <v>1290.7230769230769</v>
+        <f t="shared" si="5"/>
+        <v>1455</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2913,15 +2928,15 @@
         <v>0.33703666901607932</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="3"/>
-        <v>85875</v>
+        <f t="shared" ref="H67:H101" si="6">SUM(B67:B67)</f>
+        <v>1978</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="4"/>
-        <v>1301.1363636363637</v>
+        <f t="shared" ref="I67:I101" si="7">AVERAGE(B67:B67)</f>
+        <v>1978</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2951,15 +2966,15 @@
         <v>0.40531472859533474</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="3"/>
-        <v>87826</v>
+        <f t="shared" si="6"/>
+        <v>1951</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="4"/>
-        <v>1310.8358208955224</v>
+        <f t="shared" si="7"/>
+        <v>1951</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -2989,15 +3004,15 @@
         <v>0.41833653807062754</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="3"/>
-        <v>88834</v>
+        <f t="shared" si="6"/>
+        <v>1008</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="4"/>
-        <v>1306.3823529411766</v>
+        <f t="shared" si="7"/>
+        <v>1008</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3027,15 +3042,15 @@
         <v>0.383225196337388</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="3"/>
-        <v>90109</v>
+        <f t="shared" si="6"/>
+        <v>1275</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="4"/>
-        <v>1305.927536231884</v>
+        <f t="shared" si="7"/>
+        <v>1275</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3065,15 +3080,15 @@
         <v>0.29189376043769177</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="3"/>
-        <v>90643</v>
+        <f t="shared" si="6"/>
+        <v>534</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="4"/>
-        <v>1294.9000000000001</v>
+        <f t="shared" si="7"/>
+        <v>534</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3103,15 +3118,15 @@
         <v>0.36311420206969841</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="3"/>
-        <v>91348</v>
+        <f t="shared" si="6"/>
+        <v>705</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="4"/>
-        <v>1286.5915492957747</v>
+        <f t="shared" si="7"/>
+        <v>705</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3141,15 +3156,15 @@
         <v>0.36816463940724126</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="3"/>
-        <v>92952</v>
+        <f t="shared" si="6"/>
+        <v>1604</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="4"/>
-        <v>1291</v>
+        <f t="shared" si="7"/>
+        <v>1604</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3179,15 +3194,15 @@
         <v>0.35696461157781895</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="3"/>
-        <v>94863</v>
+        <f t="shared" si="6"/>
+        <v>1911</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="4"/>
-        <v>1299.4931506849316</v>
+        <f t="shared" si="7"/>
+        <v>1911</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3217,15 +3232,15 @@
         <v>0.36272684993342441</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="3"/>
-        <v>96388</v>
+        <f t="shared" si="6"/>
+        <v>1525</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="4"/>
-        <v>1302.5405405405406</v>
+        <f t="shared" si="7"/>
+        <v>1525</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3255,15 +3270,15 @@
         <v>0.28793251551510296</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="3"/>
-        <v>97909</v>
+        <f t="shared" si="6"/>
+        <v>1521</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="4"/>
-        <v>1305.4533333333334</v>
+        <f t="shared" si="7"/>
+        <v>1521</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3293,15 +3308,15 @@
         <v>0.21346468257628626</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="3"/>
-        <v>99822</v>
+        <f t="shared" si="6"/>
+        <v>1913</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="4"/>
-        <v>1313.4473684210527</v>
+        <f t="shared" si="7"/>
+        <v>1913</v>
       </c>
       <c r="J77" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3331,15 +3346,15 @@
         <v>0.35425068313466845</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="3"/>
-        <v>100887</v>
+        <f t="shared" si="6"/>
+        <v>1065</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="4"/>
-        <v>1310.2207792207791</v>
+        <f t="shared" si="7"/>
+        <v>1065</v>
       </c>
       <c r="J78" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3369,15 +3384,15 @@
         <v>0.30906385979947804</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="3"/>
-        <v>102516</v>
+        <f t="shared" si="6"/>
+        <v>1629</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="4"/>
-        <v>1314.3076923076924</v>
+        <f t="shared" si="7"/>
+        <v>1629</v>
       </c>
       <c r="J79" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3407,15 +3422,15 @@
         <v>0.40280846801110165</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="3"/>
-        <v>103718</v>
+        <f t="shared" si="6"/>
+        <v>1202</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="4"/>
-        <v>1312.8860759493671</v>
+        <f t="shared" si="7"/>
+        <v>1202</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3445,15 +3460,15 @@
         <v>0.44148623947161963</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="3"/>
-        <v>104619</v>
+        <f t="shared" si="6"/>
+        <v>901</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="4"/>
-        <v>1307.7375</v>
+        <f t="shared" si="7"/>
+        <v>901</v>
       </c>
       <c r="J81" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3483,15 +3498,15 @@
         <v>0.39979075427032085</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="3"/>
-        <v>105848</v>
+        <f t="shared" si="6"/>
+        <v>1229</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="4"/>
-        <v>1306.7654320987654</v>
+        <f t="shared" si="7"/>
+        <v>1229</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3521,15 +3536,15 @@
         <v>0.33526871837228911</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="3"/>
-        <v>106509</v>
+        <f t="shared" si="6"/>
+        <v>661</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="4"/>
-        <v>1298.8902439024391</v>
+        <f t="shared" si="7"/>
+        <v>661</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3559,15 +3574,15 @@
         <v>0.30279871344986065</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="3"/>
-        <v>107210</v>
+        <f t="shared" si="6"/>
+        <v>701</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="4"/>
-        <v>1291.6867469879519</v>
+        <f t="shared" si="7"/>
+        <v>701</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3597,15 +3612,15 @@
         <v>0.39334225204107681</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="3"/>
-        <v>108705</v>
+        <f t="shared" si="6"/>
+        <v>1495</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="4"/>
-        <v>1294.1071428571429</v>
+        <f t="shared" si="7"/>
+        <v>1495</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3635,15 +3650,15 @@
         <v>0.3589697616059418</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="3"/>
-        <v>109474</v>
+        <f t="shared" si="6"/>
+        <v>769</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="4"/>
-        <v>1287.9294117647059</v>
+        <f t="shared" si="7"/>
+        <v>769</v>
       </c>
       <c r="J86" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3673,15 +3688,15 @@
         <v>0.28890193359971061</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="3"/>
-        <v>110789</v>
+        <f t="shared" si="6"/>
+        <v>1315</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="4"/>
-        <v>1288.2441860465117</v>
+        <f t="shared" si="7"/>
+        <v>1315</v>
       </c>
       <c r="J87" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3711,15 +3726,15 @@
         <v>0.41357784900641298</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="3"/>
-        <v>112583</v>
+        <f t="shared" si="6"/>
+        <v>1794</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="4"/>
-        <v>1294.0574712643679</v>
+        <f t="shared" si="7"/>
+        <v>1794</v>
       </c>
       <c r="J88" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3749,15 +3764,15 @@
         <v>0.38590735843006957</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="3"/>
-        <v>113538</v>
+        <f t="shared" si="6"/>
+        <v>955</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="4"/>
-        <v>1290.2045454545455</v>
+        <f t="shared" si="7"/>
+        <v>955</v>
       </c>
       <c r="J89" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3787,15 +3802,15 @@
         <v>0.37041724742885968</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="3"/>
-        <v>115523</v>
+        <f t="shared" si="6"/>
+        <v>1985</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="4"/>
-        <v>1298.0112359550562</v>
+        <f t="shared" si="7"/>
+        <v>1985</v>
       </c>
       <c r="J90" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3825,15 +3840,15 @@
         <v>0.2859206345092708</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="3"/>
-        <v>117298</v>
+        <f t="shared" si="6"/>
+        <v>1775</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="4"/>
-        <v>1303.3111111111111</v>
+        <f t="shared" si="7"/>
+        <v>1775</v>
       </c>
       <c r="J91" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3863,15 +3878,15 @@
         <v>0.3959088194518649</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="3"/>
-        <v>118814</v>
+        <f t="shared" si="6"/>
+        <v>1516</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="4"/>
-        <v>1305.6483516483515</v>
+        <f t="shared" si="7"/>
+        <v>1516</v>
       </c>
       <c r="J92" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3901,15 +3916,15 @@
         <v>0.27195741310274618</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="3"/>
-        <v>119609</v>
+        <f t="shared" si="6"/>
+        <v>795</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="4"/>
-        <v>1300.0978260869565</v>
+        <f t="shared" si="7"/>
+        <v>795</v>
       </c>
       <c r="J93" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3939,15 +3954,15 @@
         <v>0.27807309726675922</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="3"/>
-        <v>120828</v>
+        <f t="shared" si="6"/>
+        <v>1219</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="4"/>
-        <v>1299.2258064516129</v>
+        <f t="shared" si="7"/>
+        <v>1219</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -3977,15 +3992,15 @@
         <v>0.39546637419258351</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="3"/>
-        <v>121665</v>
+        <f t="shared" si="6"/>
+        <v>837</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="4"/>
-        <v>1294.3085106382978</v>
+        <f t="shared" si="7"/>
+        <v>837</v>
       </c>
       <c r="J95" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -4015,15 +4030,15 @@
         <v>0.34463908090055129</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="3"/>
-        <v>123043</v>
+        <f t="shared" si="6"/>
+        <v>1378</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="4"/>
-        <v>1295.1894736842105</v>
+        <f t="shared" si="7"/>
+        <v>1378</v>
       </c>
       <c r="J96" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -4053,15 +4068,15 @@
         <v>0.36494265078623234</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="3"/>
-        <v>124619</v>
+        <f t="shared" si="6"/>
+        <v>1576</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="4"/>
-        <v>1298.1145833333333</v>
+        <f t="shared" si="7"/>
+        <v>1576</v>
       </c>
       <c r="J97" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -4091,15 +4106,15 @@
         <v>0.27453344887085784</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="3"/>
-        <v>125910</v>
+        <f t="shared" si="6"/>
+        <v>1291</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="4"/>
-        <v>1298.0412371134021</v>
+        <f t="shared" si="7"/>
+        <v>1291</v>
       </c>
       <c r="J98" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -4129,15 +4144,15 @@
         <v>0.35928565632416865</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="3"/>
-        <v>126626</v>
+        <f t="shared" si="6"/>
+        <v>716</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="4"/>
-        <v>1292.1020408163265</v>
+        <f t="shared" si="7"/>
+        <v>716</v>
       </c>
       <c r="J99" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -4167,15 +4182,15 @@
         <v>0.3410120979486746</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="3"/>
-        <v>127889</v>
+        <f t="shared" si="6"/>
+        <v>1263</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="4"/>
-        <v>1291.8080808080808</v>
+        <f t="shared" si="7"/>
+        <v>1263</v>
       </c>
       <c r="J100" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
@@ -4205,15 +4220,15 @@
         <v>0.39420473879632273</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="3"/>
-        <v>128576</v>
+        <f t="shared" si="6"/>
+        <v>687</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="4"/>
-        <v>1285.76</v>
+        <f t="shared" si="7"/>
+        <v>687</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Profit</v>
       </c>
     </row>
